--- a/Projetos-DIO/Data Science/users.xlsx
+++ b/Projetos-DIO/Data Science/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanc\OneDrive\Documentos\Bibliotecas Python\DIO-Projetos\Projetos-DIO\Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4532864-8EA4-40B4-B04E-768B47FB9870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E480EA-E03E-4C16-B42F-E5B371E88B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5A917EB-CB09-43A5-AF6D-95840539264D}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
